--- a/edison/assets/xmls/TS_sample_syllabus.xlsx
+++ b/edison/assets/xmls/TS_sample_syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thinkSharp\midas\edison\assets\xmls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3085A3-519B-4EE3-9EC7-7AB1DA98B2D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17928D-1900-40F4-814D-0010EE0C4766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="1" activeTab="3" xr2:uid="{7171F304-078F-44E5-8B2E-684ACA116E42}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="6" xr2:uid="{7171F304-078F-44E5-8B2E-684ACA116E42}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterInfo" sheetId="1" r:id="rId1"/>
@@ -94700,8 +94700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E43CA31-15E5-41C2-9E82-55A288D6FEC9}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -94971,7 +94971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D59A3F-9893-437D-AD39-C5D110378986}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -95107,7 +95107,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -95241,7 +95241,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -95292,8 +95292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D1C6D2-264E-418E-94B9-AA7839637276}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
